--- a/Pune-Mumbai (30th_Sep) Batch_Java_Full_Stack/MPT_MTT/Module 1/JavaFullStack-Module1_Java_SQL_JDBC_MTT-Assessment.xlsx
+++ b/Pune-Mumbai (30th_Sep) Batch_Java_Full_Stack/MPT_MTT/Module 1/JavaFullStack-Module1_Java_SQL_JDBC_MTT-Assessment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCQs\JAVA MTT(Mumbai&amp;Pune)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\CG\JSpiders-CG-HTDProgram\Pune-Mumbai (30th_Sep) Batch_Java_Full_Stack\MPT_MTT\Module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="203">
   <si>
     <t>Skill</t>
   </si>
@@ -621,164 +621,6 @@
     <t>None of the mentioned</t>
   </si>
   <si>
-    <t>public class Test {
- public static void main(String args[]) {
-  int array_variable[] = new int[10];
-  for (int i = 0; i &lt; 10; ++i) {
-   array_variable[i] = i;
-   System.out.print(array_variable[i] + " ");
-   i++;
-  }
- }
-}
-What will be output of above code?</t>
-  </si>
-  <si>
-    <t>0 2 4 6 8</t>
-  </si>
-  <si>
-    <t>1 3 5 7 9</t>
-  </si>
-  <si>
-    <t>0 1 2 3 4 5 6 7 8 9</t>
-  </si>
-  <si>
-    <t>1 2 3 4 5 6 7 8 9 10</t>
-  </si>
-  <si>
-    <t>public class Test {
- public static void main(String args[]) {
-  String str = "String "+"is "+"an "+"immutable "+"class";
-  System.out.println(str);
- }
-}
-What will be output of above code?</t>
-  </si>
-  <si>
-    <t>String is an immutable class</t>
-  </si>
-  <si>
-    <t>Runtime Exception</t>
-  </si>
-  <si>
-    <t>IllegalArgumentException</t>
-  </si>
-  <si>
-    <t>public interface FuncInterface {
-  void show();
-}
-public abstract class Test implements FuncInterface {
-}</t>
-  </si>
-  <si>
-    <t>This code will not compile, because method show() in interface FuncInterface must be defined abstract.</t>
-  </si>
-  <si>
-    <t>This code will not compile, because class Test must implement method show() from interface FuncInterface.</t>
-  </si>
-  <si>
-    <t>This code will not compile, because in the declaration of class Test we must use the keyword extends instead of implements.</t>
-  </si>
-  <si>
-    <t>This code will compile without any errors.</t>
-  </si>
-  <si>
-    <t>public class CharactersMatching {
- public static void main(String[] args) {
-  Pattern pat = Pattern.compile("[A-Za-z]{1,4}\\s[A-Za-z]{1,25}"); 
-  Matcher mat = pat.matcher("Chole Wllies");
-  System.out.println(mat.matches());
- }
-}
-What will be the output of the above code</t>
-  </si>
-  <si>
-    <t>Exception at runtime</t>
-  </si>
-  <si>
-    <t>Which is of the following methods is used to create an object of Pattern class?</t>
-  </si>
-  <si>
-    <t>matcher()</t>
-  </si>
-  <si>
-    <t>complie()</t>
-  </si>
-  <si>
-    <t>matches()</t>
-  </si>
-  <si>
-    <t>Patter pattern = new Pattern()</t>
-  </si>
-  <si>
-    <t>Which of these interface is not a part of Java’s collection framework?</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SortedList </t>
-  </si>
-  <si>
-    <t>SortedMap</t>
-  </si>
-  <si>
-    <t>With x = 0, which of the following are legal lines of Java code for changing the value of x to 1?
-1. x++;
-2. x = x + 1;
-3. x += 1;
-4. x =+ 1;</t>
-  </si>
-  <si>
-    <t>1, 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>1 &amp; 4</t>
-  </si>
-  <si>
-    <t>1, 2, 3 &amp; 4</t>
-  </si>
-  <si>
-    <t>3 &amp; 2</t>
-  </si>
-  <si>
-    <t>public class Test {
- public static void main(String[] args) {
-  int g = 3;
-  ++g;
-        System.out.print(g++ * 8);
- }
-}
-What will be the output of the above code?</t>
-  </si>
-  <si>
-    <t>public class Test {
- public static void main(String[] args) {
-  int w = (int) 888.8;
-  byte x = (byte) 100L;
-  long y = (byte) 100;
-  byte z = (byte) 100L;
-  System.out.println(x+" "+y+" "+z+" "+w);
- }
-}
-What will be the output of the above code?</t>
-  </si>
-  <si>
-    <t>10.0 100 1.00 888</t>
-  </si>
-  <si>
-    <t>100 100 100 888</t>
-  </si>
-  <si>
-    <t>10.0 100 1.00 888.8</t>
-  </si>
-  <si>
-    <t>100 100 100 888.8</t>
-  </si>
-  <si>
     <t>Which of the following methods can be used add elements to implementation classes of java.util.Collection?</t>
   </si>
   <si>
@@ -792,13 +634,174 @@
   </si>
   <si>
     <t>putAll()</t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>Which type of Statement can execute parameterized queries?</t>
+  </si>
+  <si>
+    <t>PreparedStatement</t>
+  </si>
+  <si>
+    <t>ParameterizedStatement and CallableStatement</t>
+  </si>
+  <si>
+    <t>ParameterizedStatement</t>
+  </si>
+  <si>
+    <t>All kinds of Statements (i.e. which implement a sub interface of Statement)</t>
+  </si>
+  <si>
+    <t>In order to transfer data between a database and an application written in the Java programming language, the JDBC API provides which of these methods?</t>
+  </si>
+  <si>
+    <t>Methods on the ResultSet class for retrieving SQL SELECT results as Java types</t>
+  </si>
+  <si>
+    <t>Methods on the PreparedStatement class for sending Java types as SQL statement parameters.</t>
+  </si>
+  <si>
+    <t>Methods on the CallableStatement class for retrieving SQL OUT parameters as Java types.</t>
+  </si>
+  <si>
+    <t>All mentioned above</t>
+  </si>
+  <si>
+    <t>Which is used to call the stored procedures and functions?</t>
+  </si>
+  <si>
+    <t>CallableStatement Interface</t>
+  </si>
+  <si>
+    <t>PreparedStatement Interface</t>
+  </si>
+  <si>
+    <t>Statement Interface</t>
+  </si>
+  <si>
+    <t>All the above</t>
+  </si>
+  <si>
+    <t>Which method is used for an SQL statement that is executed frequently?</t>
+  </si>
+  <si>
+    <t>prepareStatement()</t>
+  </si>
+  <si>
+    <t>prepareCall()</t>
+  </si>
+  <si>
+    <t>createStatement()</t>
+  </si>
+  <si>
+    <t>String query = "delete from users_info"
+     + "where user_id=? and password=?";
+   pstmt = con.prepareStatement(query);
+   pstmt.setInt(1, regno);
+   pstmt.setString(2,pass);
+   int count = pstmt.executeUpdate();
+   What will be output</t>
+  </si>
+  <si>
+    <t>count = 1</t>
+  </si>
+  <si>
+    <t>count = 0</t>
+  </si>
+  <si>
+    <t>com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: You have an error in your SQL syntax;</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>How can you change "Hansen" into "Nilsen" in the "LastName" column in the Persons table?</t>
+  </si>
+  <si>
+    <t>MODIFY PERSONS SET LASTNAME= ‘Hansen’ INTO LASTNAME=  ‘Nilsen’</t>
+  </si>
+  <si>
+    <t>MODIFY PERSONS SET LASTNAME= ‘Nilsen’ WHERE LASTNAME=  ‘Hansen’</t>
+  </si>
+  <si>
+    <t>UPDATE PERSONS SET LASTNAME= ‘Nilsen’ WHERE LASTNAME= ‘Hansen’</t>
+  </si>
+  <si>
+    <t>UPDATE PERSONS SET LASTNAME= ‘Hansen’ INTO LASTNAME=  ‘Nilsen’</t>
+  </si>
+  <si>
+    <t>If we want to grant  'select' privilege on Emp table  from Scott user to “User”, which one of following is correct statement ?</t>
+  </si>
+  <si>
+    <t>Grant select on SCOTT.EMP to USER;</t>
+  </si>
+  <si>
+    <t>Grant select to SCOTT.EMP to USER;</t>
+  </si>
+  <si>
+    <t>Grant select from SCOTT.EMP to USER;</t>
+  </si>
+  <si>
+    <t>None of above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of  the following is correct selects all Employees with a Emp_Add containing the pattern “er” ? </t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE '%er%';</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE '_er_';</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE 'er%';</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE '%er';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will be output of the following
+ SELECT ROUND(12345, -2), ROUND(12.345,2),ROUND(12.345,3) 
+FROM Dual;
+</t>
+  </si>
+  <si>
+    <t>12300 ; 1235 ; 123.45</t>
+  </si>
+  <si>
+    <t>12300 ; 1235 ; 1.2345</t>
+  </si>
+  <si>
+    <t>123 ; 34 ;  45</t>
+  </si>
+  <si>
+    <t>12300 ; 12.35 ; 12.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM EMP E1,EMP E2 WHERE E1.JOB=E2.JOB;
+What type of joining we are using here ?
+</t>
+  </si>
+  <si>
+    <t>Outer Join</t>
+  </si>
+  <si>
+    <t>Inner Join</t>
+  </si>
+  <si>
+    <t>Natural Join</t>
+  </si>
+  <si>
+    <t>Self Join</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +854,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -906,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -967,13 +996,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -992,8 +1014,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1279,7 +1346,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I41"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1626,10 +1693,10 @@
       <c r="D12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="25" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -1642,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1671,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
@@ -1687,20 +1754,20 @@
       <c r="E14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1902,7 @@
       <c r="F19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="28" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1887,16 +1954,16 @@
       <c r="D21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="29" t="s">
         <v>106</v>
       </c>
       <c r="I21" s="20">
@@ -1925,7 +1992,7 @@
       <c r="G22" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="29" t="s">
         <v>111</v>
       </c>
       <c r="I22" s="20">
@@ -2048,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>9</v>
       </c>
@@ -2164,294 +2231,294 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="20">
+    <row r="31" spans="1:9" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>11</v>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="C35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="37" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="41" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="44" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="41" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="22" t="s">
+    <row r="40" spans="1:9" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="271.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I38" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="360" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="5">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5">
-        <v>40</v>
-      </c>
-      <c r="G39" s="5">
-        <v>32</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="I40" s="24">
-        <v>2</v>
+      <c r="C40" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="40">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2465,19 +2532,19 @@
         <v>45</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>51</v>

--- a/Pune-Mumbai (30th_Sep) Batch_Java_Full_Stack/MPT_MTT/Module 1/JavaFullStack-Module1_Java_SQL_JDBC_MTT-Assessment.xlsx
+++ b/Pune-Mumbai (30th_Sep) Batch_Java_Full_Stack/MPT_MTT/Module 1/JavaFullStack-Module1_Java_SQL_JDBC_MTT-Assessment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="204">
   <si>
     <t>Skill</t>
   </si>
@@ -516,36 +516,6 @@
     <t>public void printStackTrace()</t>
   </si>
   <si>
-    <t>Method signature consists of</t>
-  </si>
-  <si>
-    <t>Method Name, Return Type and Number Of Arguments</t>
-  </si>
-  <si>
-    <t>Access Modifier, Method Name and Types Of Arguments</t>
-  </si>
-  <si>
-    <t>Method Name, Number Of Arguments, Types Of Arguments and Order Of Arguments</t>
-  </si>
-  <si>
-    <t>Return Type, Access Modifier and Order Of Arguments</t>
-  </si>
-  <si>
-    <t>Which of these keywords can be used to prevent Method overriding?</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>public class Test {
  public static int sum(int... x) {
   return 1;
@@ -606,21 +576,6 @@
     <t>HelloJava</t>
   </si>
   <si>
-    <t>Which of these is an incorrect Statement?</t>
-  </si>
-  <si>
-    <t>It is necessary to use new operator to initialize an array</t>
-  </si>
-  <si>
-    <t>Array can be initialized using comma separated expressions surrounded by curly braces</t>
-  </si>
-  <si>
-    <t>Array can be initialized when they are declared</t>
-  </si>
-  <si>
-    <t>None of the mentioned</t>
-  </si>
-  <si>
     <t>Which of the following methods can be used add elements to implementation classes of java.util.Collection?</t>
   </si>
   <si>
@@ -795,6 +750,98 @@
   </si>
   <si>
     <t>Self Join</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>class Test extends Exception { }
+class Main {
+   public static void main(String args[]) { 
+      try {
+         throw new Test();
+      }
+      catch(Test t) {
+         System.out.println("Got the Test Exception");
+      }
+      finally {
+         System.out.println("Inside finally block ");
+      }
+  }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got the Test Exception
+Inside finally block </t>
+  </si>
+  <si>
+    <t>Got the Test Exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside finally block </t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>class MultithreadedPrograming
+    {
+        public static void main(String args[])
+        {
+            Thread t = Thread.currentThread();
+            t.setName("New Thread");
+            System.out.println(t);        
+        }
+    }</t>
+  </si>
+  <si>
+    <t>Thread[5,main].</t>
+  </si>
+  <si>
+    <t>Thread[New Thread,5].</t>
+  </si>
+  <si>
+    <t>Thread[main,5,main].</t>
+  </si>
+  <si>
+    <t>Thread[New Thread,5,main].</t>
+  </si>
+  <si>
+    <t>class Test
+{
+    public static void main (String[] args)
+    {
+        try
+        {
+            int a = 0;
+            System.out.println ("a = " + a);
+            int b = 20 / a;
+            System.out.println ("b = " + b);
+        }
+        catch(ArithmeticException e)
+        {
+            System.out.println ("Divide by zero error");
+        }
+        finally
+        {
+            System.out.println ("inside the finally block");
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>Compile error</t>
+  </si>
+  <si>
+    <t>a = 0
+Divide by zero error
+inside the finally block</t>
+  </si>
+  <si>
+    <t>A = 0</t>
+  </si>
+  <si>
+    <t>inside the finally block</t>
   </si>
 </sst>
 </file>
@@ -935,132 +982,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1345,20 +1384,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="16.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.3">
@@ -1390,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1400,22 +1440,22 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1429,26 +1469,26 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1458,26 +1498,26 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1490,1063 +1530,1063 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="5" t="b">
+      <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="14">
         <v>4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="14">
         <v>5</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="14">
         <v>6</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="1:9" ht="214.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="129" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I24" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="328.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E26" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F26" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G26" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H26" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I26" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="17" t="s">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E27" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F27" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G27" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I27" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="17" t="s">
+    <row r="28" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="C32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="20" t="s">
+    <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="17" t="s">
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="32" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G34" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="10" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E38" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F38" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G38" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="37" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="H38" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="I38" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="33" t="s">
+      <c r="C39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E39" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F39" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G39" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H39" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I36" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="41" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="38" t="s">
+      <c r="I39" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E40" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F40" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G40" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H40" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="44" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="I38" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="41" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="I39" s="40">
+      <c r="I40" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="38" t="s">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>51</v>
       </c>
     </row>
